--- a/Excels/ActionTriggers.xlsx
+++ b/Excels/ActionTriggers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1010,17 +1010,15 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="39" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1093,176 +1091,69 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-    </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-    </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-    </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-    </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1">
-        <v>13</v>
-      </c>
-    </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2">
-        <v>14</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1">
-        <v>15</v>
-      </c>
-    </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2">
-        <v>16</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-    </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2">
-        <v>18</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
-    </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="2">
-        <v>20</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1">
-        <v>21</v>
-      </c>
-    </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2">
-        <v>22</v>
-      </c>
+      <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1">
-        <v>23</v>
-      </c>
-    </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2">
-        <v>24</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1">
-        <v>25</v>
-      </c>
-    </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2">
-        <v>26</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1">
-        <v>27</v>
-      </c>
-    </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="2">
-        <v>28</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1">
-        <v>29</v>
-      </c>
-    </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2">
-        <v>30</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1">
-        <v>31</v>
-      </c>
-    </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="2">
-        <v>32</v>
-      </c>
+      <c r="A36" s="2"/>
       <c r="B36" s="2"/>
     </row>
   </sheetData>

--- a/Excels/ActionTriggers.xlsx
+++ b/Excels/ActionTriggers.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>唯一标识</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>自己受到伤害前触发，返回自己+伤害数据</t>
+  </si>
+  <si>
+    <t>JCombatTriggerCombatStart</t>
+  </si>
+  <si>
+    <t>战斗开始时触发1次，返回自己</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1016,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1091,10 +1097,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2"/>
